--- a/mota_update.xlsx
+++ b/mota_update.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\học\[] DA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc\[DA]\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CED65B4-363B-4231-81D0-1D30A4E7FE89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BCA2B4-D12C-4927-87C7-8B402CE30EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="mô tả quy trình" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>STT</t>
   </si>
@@ -115,30 +115,6 @@
   </si>
   <si>
     <t>Bảng lương</t>
-  </si>
-  <si>
-    <t>Tên lớp</t>
-  </si>
-  <si>
-    <t>10TDS1</t>
-  </si>
-  <si>
-    <t>10THH2</t>
-  </si>
-  <si>
-    <t>11TDS1</t>
-  </si>
-  <si>
-    <t>10TDS2</t>
-  </si>
-  <si>
-    <t>Tổng buổi</t>
-  </si>
-  <si>
-    <t>Lương</t>
-  </si>
-  <si>
-    <t>Tổng lương</t>
   </si>
   <si>
     <r>
@@ -195,15 +171,171 @@
 - Giáo viên được xem lương của mình</t>
     </r>
   </si>
+  <si>
+    <t>Danh mục</t>
+  </si>
+  <si>
+    <t>Mô tả quy trình</t>
+  </si>
+  <si>
+    <t>- Giáo viên thực hiện đăng ký lịch dạy theo form</t>
+  </si>
+  <si>
+    <t>Sắp xếp thời khóa biểu</t>
+  </si>
+  <si>
+    <t>Thu học phí</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Dựa trên tkb thì có buổi học (thì từ cái tkb VD như là thứ 3 thứ 5 thì sẽ biết ngày học là ngày bn? Hoặc để staff hoặc giáo viên điền ngày dạy cũng được)
+- Dựa trên đăng ký học thì có danh sách lớp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>? Thời khóa biểu có thể 2 môn/ngày nên t tưởng điểm danh pải join vs lớp chứ? Db đang join điểm danh vs user? nếu như thế trùng ngày thì ntn? vs cả join vs user thì biết lsao dk cái tích điểm danh này là của môn nào? :o</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Trên trang staff vs giáo viên thì hiển thị như thế này
+Học sinh thì hiển thị
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng ký dạy của giáo viên
+Thời khóa biểu của giáo viên (hiển thị khi giáo viên đó đăng nhập)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hiển thị trên trang học sinh:
+- trên trang staff
+</t>
+  </si>
+  <si>
+    <t>Tính lương</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Lương = Tổng học phí các lớp do giáo viên đó dạy * 70%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>? Thu học phí theo tháng là sao? Cố định kiểu Toán 1,200,000đ/tháng?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- Nếu như thế thì t thấy điểm danh k có ý nghĩa nếu thu học phí cố định
+- T muốn học phí hiển thị trên web ở phần tuyển sinh là theo buổi, tức là 120,000đ/buổi
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(Mức học phí của từng môn sẽ khác nhau VD Toán 120,000đ/ buổi, Anh 150,000đ/buổi. Ngoài ra, sẽ khác nhau dựa trên trình độ của giáo viên dạy. VD Toán do GV có kinh nghiệm 7 năm/ dạy trường chuyên: 150,000đ/buổi; GV ít kinh nghiệm/ dạy trường thường: 120,000đ/buổi)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+- Thì từ bảng điểm danh filter theo tháng thì sẽ count dk tổng buổi theo môn của từng học sinh đúng k?
+- Xong tính </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">Học phí = Tổng (Môn*Số buổi)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Cô yêu cầu hiển thị trạng thái đóng học phí (đã thanh toán/chưa thanh toán)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tuyển sinh
+- Thời khóa biểu của học sinh tương tự thời khóa biểu của giáo viên ở trên
+- k thì như thế này càng tốt (tức là n sẽ hiển thị luôn ngày học trong tháng)
+</t>
+  </si>
+  <si>
+    <t>- Dựa trên lịch đăng ký dạy của giáo viên
+VD: Giáo viên A đăng ký (như hình bên)
+- Sắp xếp thời khóa biểu dựa trên quy tắc 2 buổi / tuần / môn (không bắt buộc sắp full tkb theo lịch GV đăng ký, miễn là những buổi GV đi dạy thì sẽ nằm trong những buổi GV đăng ký)
+- filter ra thời khóa biểu giáo viên</t>
+  </si>
+  <si>
+    <t>- Dựa trên tkb đã có đăng thông tin tuyển sinh trên web
+- Học sinh đăng ký học theo form (t nghĩ là đăng ký học xong thì mới được cấp user để đăng nhập)
+- filter ra thời khóa biểu học sinh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm"/>
-  </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,37 +375,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -281,8 +382,32 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +426,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -419,7 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,35 +594,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,8 +609,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -740,6 +865,425 @@
         <a:xfrm>
           <a:off x="7477126" y="9641275"/>
           <a:ext cx="4429124" cy="1188649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4105275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2091395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33BE027-0C94-4A02-9F45-FD1C5F6261B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7867650" y="485775"/>
+          <a:ext cx="2409825" cy="2005670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>237136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3886201</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2321388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E088D8CC-7C96-4C54-A31B-41D43B77CAAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400801" y="3685186"/>
+          <a:ext cx="3657600" cy="2084252"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2659734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5505450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3476152</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3B72D8-08E8-417A-B1C0-88C00ED9B975}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="6107784"/>
+          <a:ext cx="5457825" cy="816418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2409942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4685523</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4362068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305A7B9D-3019-41D2-964A-76C1A063C79B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6886575" y="2809992"/>
+          <a:ext cx="3971148" cy="1952126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>220134</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1904692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6220884</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2755540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FAD162-13D2-4D6D-BCAD-9570A831B9EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6392334" y="6676717"/>
+          <a:ext cx="6000750" cy="850848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>231228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5342558</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1371367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9FF30F8-C7C2-43FF-96EC-3BBE8425EBF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="10032453"/>
+          <a:ext cx="4723433" cy="1140139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1450866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4953000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3200903</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C523DD4F-583D-4D3E-A00D-2470C04BCC7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7305675" y="11252091"/>
+          <a:ext cx="3819525" cy="1750037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876301</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3124201</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1375090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4323308F-7BC6-4A69-BC74-72ABBE5D8CFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048501" y="4947423"/>
+          <a:ext cx="2247900" cy="1199692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6076010</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1161869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8CC0446-777D-4664-8B3C-4E125E357CC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6496049" y="14512671"/>
+          <a:ext cx="5752161" cy="1108148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1016,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019D4397-2E28-44C1-A5E2-133D80C1F386}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1067,10 +1611,10 @@
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
@@ -1082,8 +1626,8 @@
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="25"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
@@ -1095,8 +1639,8 @@
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
@@ -1108,8 +1652,8 @@
       <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
@@ -1141,11 +1685,11 @@
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>19</v>
@@ -1184,11 +1728,11 @@
       <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -1210,211 +1754,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CA31DE-EA1C-4561-AFD6-7DFDD9DF7D16}">
-  <dimension ref="A2:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568DF7E5-7095-49A7-8AE8-BAA5DD4533A2}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="7.5" style="15" customWidth="1"/>
-    <col min="13" max="13" width="11.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="21"/>
-    <col min="15" max="16384" width="10" style="15"/>
+    <col min="1" max="1" width="18.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="83" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="18">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18">
-        <v>2</v>
-      </c>
-      <c r="E2" s="18">
-        <v>3</v>
-      </c>
-      <c r="F2" s="18">
-        <v>4</v>
-      </c>
-      <c r="G2" s="18">
-        <v>5</v>
-      </c>
-      <c r="H2" s="18">
-        <v>6</v>
-      </c>
-      <c r="I2" s="18">
-        <v>7</v>
-      </c>
-      <c r="J2" s="18">
-        <v>8</v>
-      </c>
-      <c r="K2" s="18">
-        <v>9</v>
-      </c>
-      <c r="L2" s="18">
-        <v>10</v>
-      </c>
-      <c r="M2" s="18" t="s">
+    <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="344.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="B3" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="222.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="283.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="256.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>30</v>
       </c>
+      <c r="B6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="17">
-        <v>43891</v>
-      </c>
-      <c r="D3" s="17">
-        <v>43893</v>
-      </c>
-      <c r="E3" s="17">
-        <v>43898</v>
-      </c>
-      <c r="F3" s="17">
-        <v>43900</v>
-      </c>
-      <c r="G3" s="17">
-        <v>43905</v>
-      </c>
-      <c r="H3" s="17">
-        <v>43907</v>
-      </c>
-      <c r="I3" s="17">
-        <v>43912</v>
-      </c>
-      <c r="J3" s="17">
-        <v>43914</v>
-      </c>
-      <c r="K3" s="17">
-        <v>43919</v>
-      </c>
-      <c r="L3" s="17">
-        <v>43921</v>
-      </c>
-      <c r="M3" s="16">
-        <f>COUNT(C3:L3)</f>
-        <v>10</v>
-      </c>
-      <c r="N3" s="23">
-        <f>M3*130000*70/100</f>
-        <v>910000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="17">
-        <v>43892</v>
-      </c>
-      <c r="D4" s="17">
-        <v>43894</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="16">
-        <f t="shared" ref="M4:M6" si="0">COUNT(C4:L4)</f>
-        <v>2</v>
-      </c>
-      <c r="N4" s="23">
-        <f t="shared" ref="N4:N6" si="1">M4*130000*70/100</f>
-        <v>182000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="17">
-        <v>43891</v>
-      </c>
-      <c r="D5" s="17">
-        <v>43893</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N5" s="23">
-        <f t="shared" si="1"/>
-        <v>182000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="24">
-        <f>SUM(N3:N6)</f>
-        <v>1274000</v>
+    <row r="7" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/mota_update.xlsx
+++ b/mota_update.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc\[DA]\Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\DoAn\Rent\Studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BCA2B4-D12C-4927-87C7-8B402CE30EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11316" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="mô tả quy trình" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -130,7 +129,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -140,7 +139,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -163,7 +162,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -198,7 +197,7 @@
         <i/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -232,7 +231,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -246,7 +245,7 @@
         <i/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -256,7 +255,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -270,7 +269,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -280,7 +279,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -293,7 +292,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -306,7 +305,7 @@
         <i/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
+        <rFont val="Calibri Light"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -334,12 +333,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -347,14 +346,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -362,7 +361,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -370,7 +369,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -378,14 +377,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -393,7 +392,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -402,7 +401,7 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -597,6 +596,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,30 +631,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1557,25 +1556,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019D4397-2E28-44C1-A5E2-133D80C1F386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="59.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="59.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1600,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1611,12 +1610,12 @@
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1626,10 +1625,10 @@
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="16"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1639,10 +1638,10 @@
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1652,10 +1651,10 @@
       <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="16"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:14" ht="90" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1670,7 +1669,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1681,7 +1680,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:14" ht="285" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1696,7 +1695,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1711,7 +1710,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="210" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1724,7 +1723,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="119.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -1743,9 +1742,9 @@
     <mergeCell ref="D3:D6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{4366BEDD-4284-45B0-96A5-A9A8E8649776}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{149BA6CA-F651-4AA7-A26E-A0FB19C9BB03}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{16047BAC-314C-4318-8211-B2E59238D05D}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -1754,86 +1753,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568DF7E5-7095-49A7-8AE8-BAA5DD4533A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="83" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="18.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.44140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="83" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="344.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:3" ht="344.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="222.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:3" ht="222.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="283.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:3" ht="280.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="256.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:3" ht="256.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>36</v>
       </c>
     </row>

--- a/mota_update.xlsx
+++ b/mota_update.xlsx
@@ -9,29 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11316" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="mô tả quy trình" sheetId="4" r:id="rId2"/>
+    <sheet name="Các chức năng thiếu" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>STT</t>
   </si>
@@ -328,6 +324,69 @@
     <t>- Dựa trên tkb đã có đăng thông tin tuyển sinh trên web
 - Học sinh đăng ký học theo form (t nghĩ là đăng ký học xong thì mới được cấp user để đăng nhập)
 - filter ra thời khóa biểu học sinh</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Web khi chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>- Đồng bộ ngôn ngữ hiển thị
+- Click 'Lớp' hiển thị danh sách lớp (tên lớp, lịch học, tên giáo viên, button chi tiết)
+- Click 'Chi tiết' hiển thị thông tin lớp (đã mô tả trong sheet 1) button Đăng ký học</t>
+  </si>
+  <si>
+    <t>Web đăng nhập user học sinh</t>
+  </si>
+  <si>
+    <t>Web đăng nhập user giáo viên/admin</t>
+  </si>
+  <si>
+    <t>- Đồng bộ ngôn ngữ hiển thị
+- Lịch dạy của giáo viên (hiển thị thông tin lớp do giáo viên đó dạy), (đăng nhập quyền admin hiển thị toàn bộ các lớp)
+- Click vào lớp thì hiển thị danh sách lớp để điểm danh
+- Bảng lương (xem mô tả sheet trước)</t>
+  </si>
+  <si>
+    <t>Trang admin</t>
+  </si>
+  <si>
+    <t>- Đồng bộ ngôn ngữ hiển thị
+- Thời khóa biểu học sinh
+- Bảng điểm danh theo lớp 
+- Học phí</t>
+  </si>
+  <si>
+    <t>Xem lại mô tả trong sheet trước</t>
+  </si>
+  <si>
+    <t>- Hiển thị bảng lương của từng giáo viên theo tháng (tương tự sheet trước)
+- Hiển thị bảng lương của toàn bộ giáo viên theo tháng, tìm kiếm theo tháng
+- Hiển thị bảng điểm danh của học sinh theo lớp theo tháng, tìm kiếm theo tháng, theo lớp (có thể thực hiện điểm danh tại trang này)
+- Hiển thị bảng học phí của từng học sinh theo lớp theo tháng
+- Hiển thị bảng học phí của toàn bộ học sinh (tương tự bảng lương của toàn bộ giáo viên)</t>
+  </si>
+  <si>
+    <t>Tên giáo viên</t>
+  </si>
+  <si>
+    <t>Tổng lương</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Lê Văn A</t>
+  </si>
+  <si>
+    <t>Trần Văn B</t>
+  </si>
+  <si>
+    <t>Đã thanh toán</t>
+  </si>
+  <si>
+    <t>Chưa thanh toán</t>
   </si>
 </sst>
 </file>
@@ -549,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -620,6 +679,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1294,6 +1364,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3095256</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>933362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD262200-48D8-457E-AD31-F5D2BE3A3857}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="2705100"/>
+          <a:ext cx="2952381" cy="704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1559,7 +1678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1610,10 +1729,10 @@
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
@@ -1625,8 +1744,8 @@
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="24"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
@@ -1638,8 +1757,8 @@
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
@@ -1651,8 +1770,8 @@
       <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
@@ -1756,7 +1875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1841,4 +1960,128 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.44140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="44.77734375" style="24" customWidth="1"/>
+    <col min="4" max="16384" width="27.44140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="28">
+        <v>10000000</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="28">
+        <v>12000000</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mota_update.xlsx
+++ b/mota_update.xlsx
@@ -1678,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1875,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1967,7 +1967,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/mota_update.xlsx
+++ b/mota_update.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\DoAn\Rent\Studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc\[DA]\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10455" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="mô tả quy trình" sheetId="4" r:id="rId2"/>
     <sheet name="Các chức năng thiếu" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Bổ sung" sheetId="6" r:id="rId4"/>
+    <sheet name="Bảng lương" sheetId="9" r:id="rId5"/>
+    <sheet name="Bảng học phí" sheetId="10" r:id="rId6"/>
+    <sheet name="Mẫu hóa đơn học phí" sheetId="7" r:id="rId7"/>
+    <sheet name="Thời khóa biểu giáo viên" sheetId="8" r:id="rId8"/>
+    <sheet name="Thống kê điểm danh theo lớp" sheetId="11" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Bảng học phí'!$A$1:$G$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Bảng lương'!$A$1:$G$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Mẫu hóa đơn học phí'!$B$2:$K$22</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,8 +36,111 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>An An</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>An An:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cái này để dạng checkbox cũng được, tích là đã thanh toán
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>An An</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>An An:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cái này để dạng checkbox cũng được, tích là đã thanh toán, nếu đã thanh toán thì disable button Xuất hóa đơn đi nhé</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>An An</author>
+  </authors>
+  <commentList>
+    <comment ref="N5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>An An:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Thống kê kiểu table thế này được không? Thấy n dễ hơn nhìn list các ngày</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="129">
   <si>
     <t>STT</t>
   </si>
@@ -125,7 +238,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -135,7 +248,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -158,7 +271,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -193,7 +306,7 @@
         <i/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -227,7 +340,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -241,7 +354,7 @@
         <i/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -251,7 +364,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -265,7 +378,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -275,7 +388,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -288,7 +401,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -301,7 +414,7 @@
         <i/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
@@ -368,36 +481,319 @@
 - Hiển thị bảng học phí của toàn bộ học sinh (tương tự bảng lương của toàn bộ giáo viên)</t>
   </si>
   <si>
-    <t>Tên giáo viên</t>
-  </si>
-  <si>
     <t>Tổng lương</t>
   </si>
   <si>
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>Lê Văn A</t>
-  </si>
-  <si>
     <t>Trần Văn B</t>
   </si>
   <si>
     <t>Đã thanh toán</t>
   </si>
   <si>
-    <t>Chưa thanh toán</t>
+    <t>Trung tâm bồi dưỡng kiến thức</t>
+  </si>
+  <si>
+    <t>Chu Văn An</t>
+  </si>
+  <si>
+    <t>Cộng hòa Xã hội Chủ nghĩa Việt Nam</t>
+  </si>
+  <si>
+    <t>Độc lập - Tự do - Hạnh phúc</t>
+  </si>
+  <si>
+    <t>THÔNG BÁO</t>
+  </si>
+  <si>
+    <t>Học phí tháng 10/2019</t>
+  </si>
+  <si>
+    <t>Trung tâm bồi dưỡng kiến thức Chu Văn An thông báo thu học phí của tháng 10 bao gồm:</t>
+  </si>
+  <si>
+    <t>Môn học</t>
+  </si>
+  <si>
+    <t>Số buổi</t>
+  </si>
+  <si>
+    <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>Toán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lý </t>
+  </si>
+  <si>
+    <t>Hóa</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>(Phụ huynh hoàn thành đóng học phí trước ngày 10 tháng tiếp theo)</t>
+  </si>
+  <si>
+    <t>Ngày 31 tháng 10 năm 2019</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kính gửi: Phụ huynh học sinh </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Trần Thu Trang</t>
+    </r>
+  </si>
+  <si>
+    <t>- Phần đăng ký giáo viên bỏ nhập hệ số đề xuất
+- Admin duyệt giáo viên tự nhập hệ số (đổi tên hệ số thành chỉ số tín nhiệm)</t>
+  </si>
+  <si>
+    <t>Thứ 2</t>
+  </si>
+  <si>
+    <t>Thứ 3</t>
+  </si>
+  <si>
+    <t>Thứ 4</t>
+  </si>
+  <si>
+    <t>Thứ 5</t>
+  </si>
+  <si>
+    <t>Thứ 6</t>
+  </si>
+  <si>
+    <t>Thứ 7</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>13:45 - 15:15</t>
+  </si>
+  <si>
+    <t>6T02C</t>
+  </si>
+  <si>
+    <t>15:30 - 17:00</t>
+  </si>
+  <si>
+    <t>5T02C</t>
+  </si>
+  <si>
+    <t>17:00 - 19:00</t>
+  </si>
+  <si>
+    <t>6T26C</t>
+  </si>
+  <si>
+    <t>8T01C</t>
+  </si>
+  <si>
+    <t>19:30 - 21:30</t>
+  </si>
+  <si>
+    <t>9T01C</t>
+  </si>
+  <si>
+    <t>7T01C</t>
+  </si>
+  <si>
+    <t>Button Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
+  </si>
+  <si>
+    <t>Trần Văn A</t>
+  </si>
+  <si>
+    <t>Trần Văn C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>textbox nhập tháng</t>
+  </si>
+  <si>
+    <t>Button tìm kiếm</t>
+  </si>
+  <si>
+    <t>Tổng chi</t>
+  </si>
+  <si>
+    <t>Học văn sinh</t>
+  </si>
+  <si>
+    <t>Học thị sinh</t>
+  </si>
+  <si>
+    <t>button Xuất hóa đơn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phân quyền thủ quỹ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Được xem các báo cáo thống kê
+- Thống kê điểm danh
+- Bảng học phí của học sinh (bao gồm trạng thái)
+- Bảng lương của giáo viên (bao gồm trạng thái)
+- Xuất hóa đơn học phí của học sinh (button In)</t>
+    </r>
+  </si>
+  <si>
+    <t>Textbox tìm kiếm ( tìm theo tên giáo viên) hoặc để dropdownlist chọn tên giáo viên cũng được thì k cần button</t>
+  </si>
+  <si>
+    <t>Họ Tên</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t>Trần Thu Trang</t>
+  </si>
+  <si>
+    <t>Đoàn Hoàng Ánh</t>
+  </si>
+  <si>
+    <t>Vũ Hải</t>
+  </si>
+  <si>
+    <t>Trần Quang Minh</t>
+  </si>
+  <si>
+    <t>Vũ Hải Yến</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Nguyễn Việt Anh</t>
+  </si>
+  <si>
+    <t>Lê Thùy Trang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thùy Linh</t>
+  </si>
+  <si>
+    <t>Nguyễn Hải Hương Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Hải Phương Thảo</t>
+  </si>
+  <si>
+    <t>Đặng Minh Thu</t>
+  </si>
+  <si>
+    <t>Mai Phương Thảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Lan Chi</t>
+  </si>
+  <si>
+    <t>Vũ Thu Thảo</t>
+  </si>
+  <si>
+    <t>Lê Nhật Nam</t>
+  </si>
+  <si>
+    <t>dropdownlist chọn tháng</t>
+  </si>
+  <si>
+    <t>dropdownlist chọn năm</t>
+  </si>
+  <si>
+    <t>dropdownlist chọn lớp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phân quyền admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Thêm/ sửa/ xóa giáo viên
+- Thêm/ sửa/ xóa học sinh
+- Thêm/sửa/ xóa lớp (thêm trường phòng học, thay cho cái trường note cũng được, hoặc thêm trường mới) validate tạo lớp tránh trùng phòng
+- Thêm/ sửa/ xóa môn học
+- Hiển thị thời khóa biểu theo giáo viên/tuần
+- Không xem được báo cáo thống kê</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -405,14 +801,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -420,7 +816,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -428,7 +824,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -436,14 +832,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -451,7 +847,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -460,12 +856,79 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,8 +953,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -603,12 +1072,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,8 +1207,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,6 +1218,108 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1678,22 +2297,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D6"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="59.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="59.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1719,7 +2338,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1729,12 +2348,12 @@
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1744,10 +2363,10 @@
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D4" s="29"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1757,10 +2376,10 @@
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D5" s="29"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1770,10 +2389,10 @@
       <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D6" s="30"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1788,7 +2407,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1799,7 +2418,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:14" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1814,7 +2433,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1829,7 +2448,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="210" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1842,7 +2461,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="119.25" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -1879,15 +2498,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.44140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5" style="18" customWidth="1"/>
     <col min="3" max="3" width="83" style="18" customWidth="1"/>
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -1895,7 +2514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
@@ -1903,7 +2522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="344.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="344.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>29</v>
       </c>
@@ -1914,7 +2533,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="222.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="222.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
@@ -1925,7 +2544,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="280.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="283.5" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>20</v>
       </c>
@@ -1936,7 +2555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="256.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="256.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>30</v>
       </c>
@@ -1947,7 +2566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>35</v>
       </c>
@@ -1966,55 +2585,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="27.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.44140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="44.77734375" style="24" customWidth="1"/>
-    <col min="4" max="16384" width="27.44140625" style="24"/>
+    <col min="1" max="1" width="28.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5" style="24" customWidth="1"/>
+    <col min="3" max="3" width="44.75" style="24" customWidth="1"/>
+    <col min="4" max="16384" width="27.5" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
     </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="29"/>
-    </row>
-    <row r="5" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>47</v>
       </c>
@@ -2035,53 +2654,1271 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="28">
-        <v>10000000</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="28">
-        <v>12000000</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>57</v>
-      </c>
+    <row r="1" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="43"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="58"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="C2:E14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="16.25" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="54">
+        <v>12000000</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="54">
+        <v>12000000</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="54">
+        <v>12000000</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="54">
+        <v>12000000</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="54">
+        <v>12000000</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="54">
+        <v>12000000</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="55">
+        <f>SUM(D5:D10)</f>
+        <v>72000000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="53"/>
+    </row>
+    <row r="13" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="53"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="C2:F14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="16.25" style="48"/>
+    <col min="6" max="6" width="17.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.25" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="54">
+        <v>1200000</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="54">
+        <v>2000000</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="54">
+        <v>2000000</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="54">
+        <v>1500000</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="54">
+        <v>1250000</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="54">
+        <v>2500000</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="55">
+        <f>SUM(D5:D10)</f>
+        <v>10450000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="53"/>
+    </row>
+    <row r="13" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="53"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="31"/>
+    <col min="2" max="4" width="12.5" style="31" customWidth="1"/>
+    <col min="5" max="7" width="14.375" style="31" customWidth="1"/>
+    <col min="8" max="11" width="12.5" style="31" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+    </row>
+    <row r="6" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="36">
+        <v>9</v>
+      </c>
+      <c r="G12" s="37">
+        <v>540000</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="36">
+        <v>9</v>
+      </c>
+      <c r="G13" s="37">
+        <v>540000</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="36">
+        <v>0</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="38">
+        <v>4</v>
+      </c>
+      <c r="G15" s="37">
+        <v>320000</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="41">
+        <v>1400000</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+    </row>
+    <row r="18" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+    </row>
+    <row r="20" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="11" scale="61" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.25" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.25" style="48"/>
+    <col min="2" max="2" width="20.375" style="48" customWidth="1"/>
+    <col min="3" max="9" width="13.75" style="48" customWidth="1"/>
+    <col min="10" max="16384" width="18.25" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="I1" s="50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+    </row>
+    <row r="8" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="48"/>
+    <col min="2" max="2" width="4.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="5.375" style="48" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C2" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="J2" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="61">
+        <v>1</v>
+      </c>
+      <c r="E5" s="61">
+        <v>2</v>
+      </c>
+      <c r="F5" s="61">
+        <v>3</v>
+      </c>
+      <c r="G5" s="61">
+        <v>4</v>
+      </c>
+      <c r="H5" s="61">
+        <v>5</v>
+      </c>
+      <c r="I5" s="61">
+        <v>6</v>
+      </c>
+      <c r="J5" s="61">
+        <v>7</v>
+      </c>
+      <c r="K5" s="61">
+        <v>8</v>
+      </c>
+      <c r="L5" s="61">
+        <v>9</v>
+      </c>
+      <c r="M5" s="61">
+        <v>10</v>
+      </c>
+      <c r="N5" s="60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="62">
+        <v>43739</v>
+      </c>
+      <c r="E6" s="62">
+        <v>43741</v>
+      </c>
+      <c r="F6" s="62">
+        <v>43746</v>
+      </c>
+      <c r="G6" s="62">
+        <v>43748</v>
+      </c>
+      <c r="H6" s="62">
+        <v>43753</v>
+      </c>
+      <c r="I6" s="62">
+        <v>43755</v>
+      </c>
+      <c r="J6" s="62">
+        <v>43760</v>
+      </c>
+      <c r="K6" s="62">
+        <v>43762</v>
+      </c>
+      <c r="L6" s="62">
+        <v>43767</v>
+      </c>
+      <c r="M6" s="62">
+        <v>43769</v>
+      </c>
+      <c r="N6" s="60"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="63">
+        <v>1</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="63">
+        <v>2</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="63">
+        <v>3</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="63">
+        <v>4</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="63">
+        <v>5</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="65"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="63">
+        <v>6</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="63">
+        <v>7</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="63">
+        <v>8</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="63">
+        <v>9</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="65"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="63">
+        <v>10</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="63">
+        <v>11</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="63">
+        <v>12</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="63">
+        <v>13</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="63">
+        <v>14</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="63">
+        <v>15</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>